--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1452833.99685869</v>
+        <v>1450581.917147482</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283203</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>370.0648965483574</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>75.45713216103746</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +674,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -835,7 +835,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>114.2656173771021</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>82.57906258117882</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +896,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -911,7 +911,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>58.92805047992106</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>71.3419195941018</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1069,10 +1069,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>2.39853671603769</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>12.51806891903118</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>387.3568991626934</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>286.9086906679923</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1303,7 +1303,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>71.67037196991669</v>
+        <v>71.67037196991713</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695349</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.32649042089555</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>72.8097849205479</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>35.56815683447371</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1898,10 +1898,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2002,16 +2002,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>54.26758323426815</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>27.77749086859478</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2242,13 +2242,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,10 +2296,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>26.07046444232026</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>3.006892987834117</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>9.146142788179874</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2609,7 +2609,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2719,10 +2719,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>81.13054509253637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>156.0046924576058</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3041,10 +3041,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,19 +3193,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0.8253826161906772</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,19 +3241,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892428</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>183.8417748468631</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,10 +3430,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>18.70843787977262</v>
+        <v>135.5795121770518</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,10 +3664,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182154</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>36.43062059490807</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>5.890337106874886</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520918</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,19 +3898,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>20.72279572932659</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,7 +4135,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4144,16 +4144,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>115.2302178375797</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1308.370295943748</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="C2" t="n">
-        <v>1308.370295943748</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D2" t="n">
-        <v>1308.370295943748</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4328,16 +4328,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4364,16 +4364,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
         <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943748</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686076</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>846.0716871064751</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.064395508013</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986303</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4486,16 +4486,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,28 +4507,28 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U4" t="n">
-        <v>1837.464090846021</v>
+        <v>1356.67533979849</v>
       </c>
       <c r="V4" t="n">
-        <v>1837.464090846021</v>
+        <v>1356.67533979849</v>
       </c>
       <c r="W4" t="n">
-        <v>1722.044275313594</v>
+        <v>1356.67533979849</v>
       </c>
       <c r="X4" t="n">
-        <v>1494.054724415577</v>
+        <v>1356.67533979849</v>
       </c>
       <c r="Y4" t="n">
         <v>1273.262145272047</v>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2065.110222835252</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="C5" t="n">
-        <v>1696.147705894841</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="D5" t="n">
-        <v>1337.88200728809</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E5" t="n">
-        <v>952.093754689846</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F5" t="n">
-        <v>541.1078499002385</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>126.035399745235</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W5" t="n">
-        <v>3215.315153136266</v>
+        <v>2352.681496406205</v>
       </c>
       <c r="X5" t="n">
-        <v>2841.849394875186</v>
+        <v>2352.681496406205</v>
       </c>
       <c r="Y5" t="n">
-        <v>2451.710062899374</v>
+        <v>1962.542164430393</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>922.6774975139006</v>
+        <v>850.4935808376446</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>681.5573979097377</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>531.4407584974019</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>383.5276649150088</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>236.6377174170985</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>68.93488079181742</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1914.650034028865</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1722.964149855692</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1501.197534425218</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U7" t="n">
-        <v>1212.094667550861</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="V7" t="n">
-        <v>1212.094667550861</v>
+        <v>1480.924175709432</v>
       </c>
       <c r="W7" t="n">
-        <v>922.6774975139006</v>
+        <v>1480.924175709432</v>
       </c>
       <c r="X7" t="n">
-        <v>922.6774975139006</v>
+        <v>1252.934624811414</v>
       </c>
       <c r="Y7" t="n">
-        <v>922.6774975139006</v>
+        <v>1032.142045667884</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1891.353293732294</v>
+        <v>1238.038871968308</v>
       </c>
       <c r="C8" t="n">
-        <v>1522.390776791882</v>
+        <v>869.0763550278964</v>
       </c>
       <c r="D8" t="n">
-        <v>1164.125078185132</v>
+        <v>510.8106564211459</v>
       </c>
       <c r="E8" t="n">
-        <v>778.3368255868877</v>
+        <v>510.8106564211459</v>
       </c>
       <c r="F8" t="n">
-        <v>367.3509207972801</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G8" t="n">
-        <v>356.3188746826807</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
@@ -4823,31 +4823,31 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410101</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.72178906653</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796416</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X8" t="n">
-        <v>2277.953133796416</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y8" t="n">
-        <v>2277.953133796416</v>
+        <v>1624.63871203243</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4878,16 @@
         <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738575</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>583.8261120459506</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336148</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7963790512217</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9064315533114</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882605</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
         <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947627</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040972</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5033,10 +5033,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192589</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
@@ -5045,7 +5045,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5054,19 +5054,19 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756264</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756264</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913849</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>738.7889117913849</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998425</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5185,64 +5185,64 @@
         <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2392.08784073087</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2209.233006385774</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T13" t="n">
-        <v>1989.631541408715</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U13" t="n">
-        <v>1700.556314752913</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V13" t="n">
-        <v>1445.871826547026</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W13" t="n">
-        <v>1156.454656510065</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X13" t="n">
-        <v>928.4651056120481</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>707.672526468518</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5273,22 +5273,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5355,25 +5355,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>280.8495004245714</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>776.17510664033</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>697.5276345711973</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C16" t="n">
-        <v>697.5276345711973</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>481.447947124485</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797186</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2161.135114341634</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U16" t="n">
-        <v>1872.059887685832</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V16" t="n">
-        <v>1617.375399479945</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.958229442984</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.968678544967</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y16" t="n">
-        <v>879.176099401437</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="17">
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5592,25 +5592,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>984.5467179762944</v>
       </c>
       <c r="C19" t="n">
-        <v>580.8993044876688</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>430.7826650753331</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5698,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>1166.195182806534</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5741,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
@@ -5765,10 +5765,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5944,16 +5944,16 @@
         <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1729.097755135313</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5984,31 +5984,31 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6066,25 +6066,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,55 +6121,55 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597619</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E25" t="n">
-        <v>264.0500279773688</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>244.7670222746423</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>103.0551911168404</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
         <v>2264.108249235165</v>
@@ -6187,10 +6187,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>95.58405025273903</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>692.9625378792909</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N27" t="n">
-        <v>1320.560501433898</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O27" t="n">
-        <v>1872.470231673185</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P27" t="n">
-        <v>2296.093381168253</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2529.355041543135</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
         <v>402.7245934908939</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745237</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.0655846733346</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C34" t="n">
-        <v>411.1294017454277</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D34" t="n">
-        <v>261.0127623330919</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.129363765926</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2263.274529420831</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2043.673064443772</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1754.597837787969</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V34" t="n">
-        <v>1499.913349582082</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="W34" t="n">
-        <v>1210.496179545122</v>
+        <v>1466.014387565345</v>
       </c>
       <c r="X34" t="n">
-        <v>982.5066286471044</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y34" t="n">
-        <v>761.7140495035743</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6911,46 +6911,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7014,13 +7014,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
         <v>1373.553594266881</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D37" t="n">
-        <v>194.8007783998286</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E37" t="n">
-        <v>175.9033664000583</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="38">
@@ -7166,37 +7166,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>842.6091804069456</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.580456911443</v>
+        <v>763.7541388327683</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835361</v>
+        <v>594.8179559048614</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711973</v>
+        <v>444.7013164925256</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888042</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U40" t="n">
-        <v>2191.112710026077</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V40" t="n">
-        <v>1936.428221820191</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W40" t="n">
-        <v>1647.01105178323</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X40" t="n">
-        <v>1419.021500885213</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.228921741683</v>
+        <v>945.402603663008</v>
       </c>
     </row>
     <row r="41">
@@ -7400,31 +7400,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>680.448174698413</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>530.3315352860773</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>434.0093569897589</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>762.547769317909</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.84741111297626e-12</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>12.04875628922616</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>73.62417772602127</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>181.8372934928146</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23786,10 +23786,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V17" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23890,16 +23890,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>112.9792378643597</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>118.6564717779744</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24130,13 +24130,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,10 +24184,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>226.0671788815077</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>142.4141550350971</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>72.11969353038565</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24497,7 +24497,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24607,10 +24607,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>65.30341755403281</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24695,7 +24695,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>69.70496293143131</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631857025</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>65.54986409393101</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25132,16 +25132,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>41.86788054217405</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25318,10 +25318,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>127.7255247667966</v>
+        <v>10.85445046951733</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -25330,7 +25330,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>110.0033420516611</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25594,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>280.2941372823693</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25631,7 +25631,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>265.8002026072644</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26032,16 +26032,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>50.2939204546891</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>920848.7479165155</v>
+        <v>920848.7479165156</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>920848.7479165156</v>
+        <v>920848.7479165157</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>920848.7479165158</v>
+        <v>920848.7479165157</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>920848.7479165156</v>
+        <v>920848.7479165157</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>920848.7479165156</v>
+        <v>920848.7479165157</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>920848.7479165156</v>
+        <v>920848.7479165158</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>920848.7479165155</v>
+        <v>920848.7479165158</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>920848.7479165156</v>
+        <v>920848.7479165158</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>920848.7479165157</v>
+        <v>920848.7479165156</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>920848.7479165156</v>
+        <v>920848.7479165157</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="D2" t="n">
         <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062534</v>
+        <v>504466.6248062535</v>
       </c>
       <c r="F2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="G2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="H2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="I2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="J2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="K2" t="n">
         <v>504466.6248062536</v>
@@ -26347,10 +26347,10 @@
         <v>504466.6248062536</v>
       </c>
       <c r="N2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="O2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="P2" t="n">
         <v>504466.6248062538</v>
@@ -26363,40 +26363,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
-        <v>3.594527697714511e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319403</v>
+        <v>92793.84288319407</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319404</v>
+        <v>92793.8428831941</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319411</v>
+        <v>92793.84288319407</v>
       </c>
       <c r="E4" t="n">
         <v>13606.80811184274</v>
@@ -26436,16 +26436,16 @@
         <v>13606.80811184274</v>
       </c>
       <c r="I4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="J4" t="n">
         <v>13606.80811184274</v>
-      </c>
-      <c r="J4" t="n">
-        <v>13606.80811184275</v>
       </c>
       <c r="K4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184272</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="M4" t="n">
         <v>13606.80811184275</v>
@@ -26454,7 +26454,7 @@
         <v>13606.80811184275</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="P4" t="n">
         <v>13606.80811184274</v>
@@ -26522,46 +26522,46 @@
         <v>-1016321.423007003</v>
       </c>
       <c r="C6" t="n">
-        <v>312423.3227205897</v>
+        <v>312423.3227205898</v>
       </c>
       <c r="D6" t="n">
-        <v>312423.3227205899</v>
+        <v>312423.3227205896</v>
       </c>
       <c r="E6" t="n">
-        <v>64324.82506314866</v>
+        <v>64290.08713771305</v>
       </c>
       <c r="F6" t="n">
-        <v>389737.2868705036</v>
+        <v>389702.5489450682</v>
       </c>
       <c r="G6" t="n">
-        <v>389737.286870504</v>
+        <v>389702.548945068</v>
       </c>
       <c r="H6" t="n">
-        <v>389737.286870504</v>
+        <v>389702.5489450681</v>
       </c>
       <c r="I6" t="n">
-        <v>389737.2868705038</v>
+        <v>389702.548945068</v>
       </c>
       <c r="J6" t="n">
-        <v>172206.0844732264</v>
+        <v>172171.3465477909</v>
       </c>
       <c r="K6" t="n">
-        <v>389737.2868705038</v>
+        <v>389702.5489450679</v>
       </c>
       <c r="L6" t="n">
-        <v>389737.2868705039</v>
+        <v>389702.5489450681</v>
       </c>
       <c r="M6" t="n">
-        <v>304682.2589349919</v>
+        <v>304647.5210095564</v>
       </c>
       <c r="N6" t="n">
-        <v>389737.2868705039</v>
+        <v>389702.5489450682</v>
       </c>
       <c r="O6" t="n">
-        <v>389737.2868705039</v>
+        <v>389702.548945068</v>
       </c>
       <c r="P6" t="n">
-        <v>389737.2868705039</v>
+        <v>389702.5489450682</v>
       </c>
     </row>
   </sheetData>
@@ -26744,7 +26744,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26814,16 +26814,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26963,28 +26963,28 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>12.66894511512317</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,7 +27385,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>306.4732379112243</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>172.2573809594889</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>136.005590770916</v>
       </c>
     </row>
     <row r="5">
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>235.6797139073994</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>277.8990491233112</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27789,10 +27789,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3564781982831</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>76.41408375101615</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>19.51914657901801</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>7.699073719328169</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>94.35543628911154</v>
+        <v>94.3554362891111</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -29761,10 +29761,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29925,7 +29925,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-4.713266813875332e-12</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -29961,7 +29961,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>-4.452798631456116e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30384,7 +30384,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-3.016490760880212e-12</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -30447,7 +30447,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>3.016490760880212e-12</v>
       </c>
     </row>
     <row r="41">
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31753,7 +31753,7 @@
         <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
         <v>212.0155798067231</v>
@@ -31762,28 +31762,28 @@
         <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,28 +31841,28 @@
         <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>705.9257335045855</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437241</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485289</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742437</v>
@@ -31914,7 +31914,7 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
@@ -31929,13 +31929,13 @@
         <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,37 +32075,37 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551114</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338208</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32312,13 +32312,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,13 +32327,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32564,7 +32564,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>248.0319961154042</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>316.0872899694776</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33020,19 +33020,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,13 +33041,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>353.3934907042774</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>169.6252075171357</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,31 +33488,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,31 +33725,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>490.507583235568</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>638.0665277849414</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,31 +34199,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,31 +34436,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674328</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>574.5840214212523</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992796</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625074</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789205</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899073</v>
@@ -35583,7 +35583,7 @@
         <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998983</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>37.76383318075244</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394658</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,13 +35975,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36212,7 +36212,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>173.4910455250332</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36668,19 +36668,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,13 +36689,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>219.4190832899471</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>23.94570355317173</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,22 +37145,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,22 +37382,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>351.9532034556938</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,31 +37616,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>506.7248157016081</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,16 +37862,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,16 +38099,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
